--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2896638.719792658</v>
+        <v>2895912.120921434</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330304</v>
+        <v>5851605.6153303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124479</v>
+        <v>864456.6793124473</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>337.0900298970776</v>
       </c>
       <c r="D2" t="n">
-        <v>328.1229395778208</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>97.12061687411359</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.60839291404062</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -819,13 +819,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>134.1885291524021</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.97154776676476</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>25.62397643569308</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>74.005365717641</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1034,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1062,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.273497641932</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.4887441459203</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6199347530832</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -1305,13 +1305,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815327</v>
+        <v>370.9203488815331</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
         <v>224.990945096747</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>56.72514580316082</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966861</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
         <v>192.9893998987849</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1672,7 +1672,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>39.02147642629063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>106.6488155538371</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1861,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U17" t="n">
         <v>224.990945096747</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>88.04314577169811</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2061,13 +2061,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4209367886176</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722222</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U20" t="n">
         <v>224.990945096747</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56236697288437</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>33.12209635668177</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2298,13 +2298,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
         <v>224.990945096747</v>
@@ -2380,10 +2380,10 @@
         <v>316.8402373905461</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298454</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56236697288437</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>33.12209635668177</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2535,13 +2535,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2575,7 +2575,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905467</v>
       </c>
       <c r="W26" t="n">
         <v>350.4237561298451</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.04510745646595</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
         <v>250.4712242529991</v>
@@ -2781,7 +2781,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64309870642131</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
@@ -3018,7 +3018,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.04510745646594</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.9893033297596</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501638</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6202780835285</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835353</v>
@@ -3492,7 +3492,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3723,13 +3723,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9103462479684</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>90.20854493763346</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1412945836353</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>105.4991482577407</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.913542846909213</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3963,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>64.97216884135977</v>
+        <v>185.7177408787439</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.098156350604</v>
+        <v>897.4547585195573</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.013969704278</v>
+        <v>556.9597788255396</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994082</v>
+        <v>152.4958489186001</v>
       </c>
       <c r="E2" t="n">
-        <v>546.2364415163049</v>
+        <v>142.1960374759009</v>
       </c>
       <c r="F2" t="n">
         <v>125.2060294699925</v>
@@ -4327,55 +4327,55 @@
         <v>120.5181494032287</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030187</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="J2" t="n">
         <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>541.5402578923299</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="L2" t="n">
-        <v>964.3492935560655</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="M2" t="n">
-        <v>964.3492935560655</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="N2" t="n">
-        <v>1387.158329219801</v>
+        <v>711.160893851792</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219801</v>
+        <v>1133.969929515528</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219801</v>
+        <v>1346.601683530237</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015093</v>
+        <v>1667.762690325529</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.319336015093</v>
+        <v>1307.675938184047</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.319336015093</v>
+        <v>1307.675938184047</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.9972286068362</v>
+        <v>340.6609820511286</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>340.6609820511286</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>223.763824270521</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675024</v>
+        <v>223.763824270521</v>
       </c>
       <c r="F3" t="n">
-        <v>232.6523037500069</v>
+        <v>223.763824270521</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006169</v>
+        <v>54.91497810006172</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030187</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="J3" t="n">
         <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466706</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="L3" t="n">
-        <v>935.665835667374</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.47487133111</v>
+        <v>649.788279946671</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.47487133111</v>
+        <v>906.1063163047452</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.47487133111</v>
+        <v>906.1063163047452</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.47487133111</v>
+        <v>1328.915351968481</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015093</v>
+        <v>1678.759816652464</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015093</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S3" t="n">
-        <v>1636.997727011012</v>
+        <v>1600.329326129403</v>
       </c>
       <c r="T3" t="n">
-        <v>1636.997727011012</v>
+        <v>1440.987462316411</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.64691614923</v>
+        <v>1243.63665145463</v>
       </c>
       <c r="V3" t="n">
-        <v>1225.935389142264</v>
+        <v>1029.925124447664</v>
       </c>
       <c r="W3" t="n">
-        <v>1012.702220878593</v>
+        <v>816.6919561839924</v>
       </c>
       <c r="X3" t="n">
-        <v>1012.702220878593</v>
+        <v>640.3659743228852</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.3002612424228</v>
+        <v>480.9640146867152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.44067739380162</v>
+        <v>169.7103555611121</v>
       </c>
       <c r="C4" t="n">
-        <v>64.44067739380162</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44067739380162</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="E4" t="n">
-        <v>34.16638672030187</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16638672030187</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030187</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030187</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030187</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551239</v>
+        <v>48.24893612551241</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1377.173515221062</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1377.173515221062</v>
       </c>
       <c r="U4" t="n">
-        <v>769.5539104192883</v>
+        <v>1094.375367767186</v>
       </c>
       <c r="V4" t="n">
-        <v>769.5539104192883</v>
+        <v>820.4896227067084</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4842459281626</v>
+        <v>820.4896227067084</v>
       </c>
       <c r="X4" t="n">
-        <v>252.140383787846</v>
+        <v>582.1457605663918</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.140383787846</v>
+        <v>357.4100619551565</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>570.6426643811657</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1447697792441</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>836.1547617733357</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>427.4264776661679</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>116.5179802938859</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>495.8616862216745</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.3531027449756</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
         <v>63.44297370227418</v>
@@ -4804,25 +4804,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1878.669691433718</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1621.609199693228</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1271.771645029709</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>888.0113441648774</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>487.3679463338299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>86.43127328192004</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.4003990889748</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>367.3070266506913</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3549844251419</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C13" t="n">
-        <v>494.3549844251419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>494.3549844251419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3549844251419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512421</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.203548008749</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389558</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.113477163765</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8407235073241</v>
+        <v>795.9286939357631</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2937722016924</v>
+        <v>587.3817426301314</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3549844251419</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5363,22 +5363,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.899838715069</v>
+        <v>785.5692082382066</v>
       </c>
       <c r="C16" t="n">
-        <v>299.6033771114703</v>
+        <v>785.5692082382066</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6033771114703</v>
+        <v>655.8714743958014</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114703</v>
+        <v>524.7575700988058</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>389.9233550440819</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>252.4698748043102</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>132.6593304444517</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310052</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.926290690861</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="V16" t="n">
-        <v>992.8374564650675</v>
+        <v>1346.957742879748</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086266</v>
+        <v>1346.957742879748</v>
       </c>
       <c r="X16" t="n">
-        <v>635.8386264916195</v>
+        <v>1138.410791574117</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.899838715069</v>
+        <v>943.4720037975661</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5551,7 +5551,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W17" t="n">
         <v>3463.023532176683</v>
@@ -5560,7 +5560,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N18" t="n">
-        <v>1615.520903630173</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.9067370486075</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="C19" t="n">
-        <v>310.9067370486075</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="D19" t="n">
-        <v>310.9067370486075</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516118</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L19" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650679</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086272</v>
       </c>
       <c r="X19" t="n">
-        <v>505.845524825158</v>
+        <v>535.0177515029955</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.9067370486075</v>
+        <v>340.0789637264451</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5834,16 +5834,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.5401592942214</v>
+        <v>126.70036067717</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5937,25 +5937,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130794</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365296</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6016,16 +6016,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6077,16 +6077,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.5401592942214</v>
+        <v>126.70036067717</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.70036067717</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6174,25 +6174,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130794</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365296</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
         <v>430.910136076462</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,13 +6253,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
         <v>3816.98692220683</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.9414315330279</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C28" t="n">
-        <v>222.9414315330279</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6390,7 +6390,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M28" t="n">
         <v>927.8555407749236</v>
@@ -6420,16 +6420,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6496,19 +6496,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.700360677169</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6627,7 +6627,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M31" t="n">
         <v>927.8555407749236</v>
@@ -6657,16 +6657,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
         <v>1585.618315208991</v>
@@ -6688,10 +6688,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489457</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764622</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6733,19 +6733,19 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X32" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
         <v>2110.173374178493</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365289</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6031562365289</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D34" t="n">
-        <v>154.9054223941237</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6925,10 +6925,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764623</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6976,10 +6976,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y35" t="n">
         <v>2721.037282963096</v>
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1253.007044501816</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>1814.712936990346</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9936395339932</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7101,7 +7101,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M37" t="n">
         <v>927.8555407749236</v>
@@ -7128,19 +7128,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U37" t="n">
-        <v>1231.804974281219</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V37" t="n">
-        <v>987.7161400554253</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W37" t="n">
-        <v>738.4433863989846</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X37" t="n">
-        <v>529.8964350933528</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.8964350933528</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
         <v>1760.328909494509</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949822</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913835</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913835</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913835</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913835</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H40" t="n">
         <v>179.7928327516118</v>
@@ -7338,7 +7338,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M40" t="n">
         <v>927.8555407749236</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>743.5647028086264</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308923</v>
+        <v>652.4449604473805</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543418</v>
+        <v>457.50617267083</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1914.319620822223</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1509.855690915283</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1095.51547543218</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>674.4850633858673</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.5005587179772</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="C43" t="n">
-        <v>370.5005587179772</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="D43" t="n">
-        <v>370.5005587179772</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="E43" t="n">
-        <v>209.5897435862967</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="F43" t="n">
-        <v>209.5897435862967</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>199.8084939105629</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1618.689520728736</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.891373274861</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V43" t="n">
-        <v>1062.005628214383</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W43" t="n">
-        <v>782.9359637232569</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X43" t="n">
-        <v>782.9359637232569</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.2002651120216</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1458.288960155805</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2019.994852644335</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.6960310278942</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C46" t="n">
-        <v>679.6026585896107</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D46" t="n">
-        <v>520.1080139125206</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.093855288175</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V46" t="n">
-        <v>1317.465401913064</v>
+        <v>1152.2507692023</v>
       </c>
       <c r="W46" t="n">
-        <v>1038.395737421939</v>
+        <v>873.1811047111746</v>
       </c>
       <c r="X46" t="n">
-        <v>1038.395737421939</v>
+        <v>634.8372425708581</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.395737421939</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>344.8822479603623</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666181</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603926</v>
+        <v>519.9921247603929</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>520.2696096295567</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>308.4289127906917</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883887</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>344.8797316095394</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421907</v>
+        <v>484.644117742191</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>312.1005008261482</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065773</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8309,7 +8309,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298663</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>66.8161563599358</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9251,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>614.7576161421991</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9482,19 +9482,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9655,7 +9655,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9725,7 +9725,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,10 +9734,10 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8995157759063</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>498.0116489728624</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>115.3859917360771</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10594,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.137504553472</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>695.4234724815018</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
@@ -23427,16 +23427,16 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>76.76072710101585</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>51.84035121586473</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.66216728408845</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>99.81266623873839</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>45.44272713247852</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
@@ -23910,7 +23910,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.04054500395787</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
@@ -24138,7 +24138,7 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
@@ -24147,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369731</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.7614006308816</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
@@ -24375,7 +24375,7 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
@@ -24384,7 +24384,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369731</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.2786601473</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
         <v>133.4858729041767</v>
@@ -24621,7 +24621,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369837</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.24039828114135</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
         <v>133.4858729041767</v>
@@ -24858,7 +24858,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369837</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>68.7576577975598</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
         <v>133.4858729041767</v>
@@ -25095,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>52.56154735369805</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F37" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>102.9568490806933</v>
       </c>
       <c r="H37" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037913</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.8509461694706</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.869679871908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>116.252936854942</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>222.4997066824608</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>42.61223238485718</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.50644829444514</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>206.1747187685135</v>
+        <v>85.42914673112932</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>577696.7329276907</v>
+        <v>577696.7329276906</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>577696.7329276906</v>
+        <v>577696.7329276907</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>537318.9095209113</v>
+        <v>537318.9095209112</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>537318.9095209111</v>
+        <v>537318.9095209112</v>
       </c>
     </row>
   </sheetData>
@@ -26319,31 +26319,31 @@
         <v>635241.3328265821</v>
       </c>
       <c r="D2" t="n">
-        <v>635241.3328265821</v>
+        <v>635241.3328265822</v>
       </c>
       <c r="E2" t="n">
         <v>615612.8085600275</v>
       </c>
       <c r="F2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.8085600276</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600275</v>
+        <v>615612.808560028</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600279</v>
       </c>
       <c r="I2" t="n">
         <v>615612.8085600277</v>
       </c>
       <c r="J2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600273</v>
       </c>
       <c r="K2" t="n">
-        <v>615612.8085600277</v>
+        <v>615612.8085600273</v>
       </c>
       <c r="L2" t="n">
-        <v>615612.8085600274</v>
+        <v>615612.8085600273</v>
       </c>
       <c r="M2" t="n">
         <v>615612.8085600273</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108465</v>
+        <v>143124.2752108466</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668828</v>
+        <v>30686.46086668819</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110962</v>
+        <v>24445.77426110955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>231775.9773255661</v>
       </c>
       <c r="C4" t="n">
-        <v>213059.5462795911</v>
+        <v>213059.546279591</v>
       </c>
       <c r="D4" t="n">
         <v>213059.5462795911</v>
@@ -26438,22 +26438,22 @@
         <v>118911.6321885295</v>
       </c>
       <c r="I4" t="n">
+        <v>118911.6321885296</v>
+      </c>
+      <c r="J4" t="n">
         <v>118911.6321885295</v>
       </c>
-      <c r="J4" t="n">
-        <v>118911.6321885296</v>
-      </c>
       <c r="K4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="L4" t="n">
         <v>118911.6321885295</v>
       </c>
       <c r="M4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="N4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="O4" t="n">
         <v>89101.60277166063</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742941</v>
+        <v>59594.05390742943</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,19 +26478,19 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26524,46 +26524,46 @@
         <v>200747.0263827401</v>
       </c>
       <c r="C6" t="n">
-        <v>326126.2606018052</v>
+        <v>326126.2606018053</v>
       </c>
       <c r="D6" t="n">
-        <v>356812.7214684935</v>
+        <v>356812.7214684936</v>
       </c>
       <c r="E6" t="n">
-        <v>207627.1033141196</v>
+        <v>207576.773764718</v>
       </c>
       <c r="F6" t="n">
-        <v>423356.0195946331</v>
+        <v>423305.6900452318</v>
       </c>
       <c r="G6" t="n">
-        <v>423356.0195946331</v>
+        <v>423305.6900452321</v>
       </c>
       <c r="H6" t="n">
-        <v>423356.0195946333</v>
+        <v>423305.6900452321</v>
       </c>
       <c r="I6" t="n">
-        <v>423356.0195946334</v>
+        <v>423305.6900452319</v>
       </c>
       <c r="J6" t="n">
-        <v>288013.9901254796</v>
+        <v>287963.6605760778</v>
       </c>
       <c r="K6" t="n">
-        <v>398910.2453335237</v>
+        <v>398859.915784122</v>
       </c>
       <c r="L6" t="n">
-        <v>423356.019594633</v>
+        <v>423305.6900452315</v>
       </c>
       <c r="M6" t="n">
-        <v>262997.5690939502</v>
+        <v>262947.2395445488</v>
       </c>
       <c r="N6" t="n">
-        <v>423356.019594633</v>
+        <v>423305.6900452317</v>
       </c>
       <c r="O6" t="n">
-        <v>404848.0886768987</v>
+        <v>404667.5080842496</v>
       </c>
       <c r="P6" t="n">
-        <v>404848.088676899</v>
+        <v>404667.5080842499</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L2" t="n">
         <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037733</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037733</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625229</v>
+        <v>94.98373636625203</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037733</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625229</v>
+        <v>94.98373636625203</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037733</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625229</v>
+        <v>94.98373636625203</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>68.933314882785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>72.29635103004921</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27444,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27460,19 +27460,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8.799594684691087</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.30171687279363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>35.19390956149854</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>129.330159213599</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>380.4949914321515</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>11.48287933845657</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.214843983191</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27906,19 +27906,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>12.49567506668944</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.20277457702075</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28067,19 +28067,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633702</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633697</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W23" t="n">
-        <v>29.4989417263377</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="32">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633704</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="C40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="D40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="E40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="F40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="G40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="H40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="I40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="J40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="K40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="L40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="M40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="N40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="O40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="R40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="S40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="T40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="U40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="V40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="W40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="X40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633797</v>
       </c>
     </row>
     <row r="41">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>255.7458582871452</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037733</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037733</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>214.7795495098076</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037733</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7652077986903</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037733</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>258.9071074323982</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>10.70163254908676</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35813,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36050,19 +36050,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36287,19 +36287,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36375,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6398807731025</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36524,19 +36524,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>443.7520139700587</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.63451273607708</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37314,7 +37314,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.4448860486332</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37484,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6719934815018</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.7237391053385</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37721,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978326</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37788,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
